--- a/public/assets/BOs/Shennong.xlsx
+++ b/public/assets/BOs/Shennong.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2A5897-8605-452B-AD91-9F8BD26CBE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CE2DDA-3224-4B23-A03F-1C1FD12D9CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>Classical</t>
   </si>
   <si>
-    <t>Basic Shennong BO - Looki</t>
-  </si>
-  <si>
     <t>Initial vils : 2 farms + 1 Kuafu wood</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>Use prosperous seeds</t>
+  </si>
+  <si>
+    <t>Instant prosperous seeds - By Looki</t>
   </si>
 </sst>
 </file>
@@ -404,9 +404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -418,7 +416,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -433,21 +431,21 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -458,7 +456,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -471,7 +469,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -489,13 +487,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/public/assets/BOs/Shennong.xlsx
+++ b/public/assets/BOs/Shennong.xlsx
@@ -1,31 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CE2DDA-3224-4B23-A03F-1C1FD12D9CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB0C17B-5C31-4078-B818-D1254EA93791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet3" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
+  <si>
+    <t>Instant prosperous seeds - By Looki</t>
+  </si>
   <si>
     <t>Archaic</t>
   </si>
@@ -33,16 +32,37 @@
     <t>Food / Wood / Gold</t>
   </si>
   <si>
+    <t>2 /  1 KuaFu  / 0</t>
+  </si>
+  <si>
+    <t>Initial vils : 2 farms + 1 Kuafu wood</t>
+  </si>
+  <si>
+    <t>100 wood -&gt; Kuafu builds house -&gt; gold</t>
+  </si>
+  <si>
+    <t>Use prosperous seeds</t>
+  </si>
+  <si>
+    <t>7 / 0 / 1 KuaFu</t>
+  </si>
+  <si>
     <t>5 next vils to hunt</t>
   </si>
   <si>
     <t>7 / 1 KuaFu + 2 / 0</t>
   </si>
   <si>
+    <t>3 wood</t>
+  </si>
+  <si>
+    <t>7 / 1 KuaFu + 3 / 1 KuaFu</t>
+  </si>
+  <si>
     <t>1 KuaFu gold</t>
   </si>
   <si>
-    <t>7 / 1 KuaFu + 3 / 1 KuaFu</t>
+    <t>7 / 1 KuaFu + 4 / 1 KuaFu</t>
   </si>
   <si>
     <t>1 wood</t>
@@ -51,40 +71,106 @@
     <t>Advance</t>
   </si>
   <si>
+    <t>2 /  7 / 2 KuaFu + 2</t>
+  </si>
+  <si>
+    <t>This is if you want to make an instant TC</t>
+  </si>
+  <si>
+    <t>You can make a few pioneer to apply pressure and be safe when building your 2nd TC</t>
+  </si>
+  <si>
     <t>Classical</t>
   </si>
   <si>
-    <t>Initial vils : 2 farms + 1 Kuafu wood</t>
-  </si>
-  <si>
-    <t>2 /  1 KuaFu  / 0</t>
-  </si>
-  <si>
-    <t>100 wood -&gt; Kuafu builds house -&gt; gold</t>
-  </si>
-  <si>
-    <t>7 / 0 / 1 KuaFu</t>
-  </si>
-  <si>
-    <t>3 wood</t>
-  </si>
-  <si>
-    <t>7 / 1 KuaFu + 4 / 1 KuaFu</t>
-  </si>
-  <si>
-    <t>2 /  7 / 2 KuaFu + 2</t>
-  </si>
-  <si>
-    <t>This is if you want to make an instant TC</t>
-  </si>
-  <si>
-    <t>You can make a few pioneer to apply pressure and be safe when building your 2nd TC</t>
-  </si>
-  <si>
-    <t>Use prosperous seeds</t>
-  </si>
-  <si>
-    <t>Instant prosperous seeds - By Looki</t>
+    <t>Water Build by Mirez</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>_x000D_</t>
+  </si>
+  <si>
+    <t>Food / Wood / Gold / Favor</t>
+  </si>
+  <si>
+    <t>1 / 1 / 0 / 0</t>
+  </si>
+  <si>
+    <t>1 Peasant Makes a Dock, a House, then goes on Wood</t>
+  </si>
+  <si>
+    <t>3 / 1 / 0 / 0</t>
+  </si>
+  <si>
+    <t>2 Peasants on Food</t>
+  </si>
+  <si>
+    <t>Autoqueue fishing ships</t>
+  </si>
+  <si>
+    <t>3 / 5 / 0 / 0</t>
+  </si>
+  <si>
+    <t>3 Peasants on Wood</t>
+  </si>
+  <si>
+    <t>5 / 5 / 1 / 0</t>
+  </si>
+  <si>
+    <t>1 Peasant makes a Silo, then goes on Gold</t>
+  </si>
+  <si>
+    <t>7 / 5 / 3 / 0</t>
+  </si>
+  <si>
+    <t>2 Peasants on Gold</t>
+  </si>
+  <si>
+    <t>8 / 5 / 4 / 0</t>
+  </si>
+  <si>
+    <t>1 Kuafu on Gold</t>
+  </si>
+  <si>
+    <t>Build a House</t>
+  </si>
+  <si>
+    <t>16 / 5 / 4 / 0</t>
+  </si>
+  <si>
+    <t>4 Peasants on Food</t>
+  </si>
+  <si>
+    <t>Build a Temple when you have 250 gold</t>
+  </si>
+  <si>
+    <t>18 / 5 / 5 / 0</t>
+  </si>
+  <si>
+    <t>Advance (4.00)</t>
+  </si>
+  <si>
+    <t>11 / 9 / 5 / 0</t>
+  </si>
+  <si>
+    <t>Move 4 Peasant from Food to Wood</t>
+  </si>
+  <si>
+    <t>Builds 2 additional Docks</t>
+  </si>
+  <si>
+    <t>Classical (5.00)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FZsJv5VwQUI</t>
+  </si>
+  <si>
+    <t>1 Peasants on Food</t>
+  </si>
+  <si>
+    <t>Kuafu makes a Silo then goes on Wood</t>
   </si>
 </sst>
 </file>
@@ -93,7 +179,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -127,7 +213,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -150,44 +236,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -217,12 +303,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -261,142 +347,201 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -404,104 +549,352 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.28515625" customWidth="1"/>
-    <col min="2" max="2" width="52.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:D12" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="80.375" customWidth="1"/>
+    <col min="2" max="2" width="53.125" customWidth="1"/>
+    <col min="3" max="3" width="40.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:D3 A5:D5 A4 C4:D4 A7:D18 B6:D6" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/public/assets/BOs/Shennong.xlsx
+++ b/public/assets/BOs/Shennong.xlsx
@@ -1,30 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB0C17B-5C31-4078-B818-D1254EA93791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA447B30-9A17-44D9-BB28-18B4C5E64FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="sheet3" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="3" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="5" r:id="rId3"/>
+    <sheet name="Feuil2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
-  <si>
-    <t>Instant prosperous seeds - By Looki</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
   <si>
     <t>Archaic</t>
   </si>
@@ -83,78 +82,39 @@
     <t>Classical</t>
   </si>
   <si>
-    <t>Water Build by Mirez</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>_x000D_</t>
-  </si>
-  <si>
     <t>Food / Wood / Gold / Favor</t>
   </si>
   <si>
-    <t>1 / 1 / 0 / 0</t>
-  </si>
-  <si>
-    <t>1 Peasant Makes a Dock, a House, then goes on Wood</t>
-  </si>
-  <si>
-    <t>3 / 1 / 0 / 0</t>
-  </si>
-  <si>
     <t>2 Peasants on Food</t>
   </si>
   <si>
     <t>Autoqueue fishing ships</t>
   </si>
   <si>
-    <t>3 / 5 / 0 / 0</t>
-  </si>
-  <si>
     <t>3 Peasants on Wood</t>
   </si>
   <si>
-    <t>5 / 5 / 1 / 0</t>
-  </si>
-  <si>
     <t>1 Peasant makes a Silo, then goes on Gold</t>
   </si>
   <si>
-    <t>7 / 5 / 3 / 0</t>
-  </si>
-  <si>
     <t>2 Peasants on Gold</t>
   </si>
   <si>
-    <t>8 / 5 / 4 / 0</t>
-  </si>
-  <si>
     <t>1 Kuafu on Gold</t>
   </si>
   <si>
     <t>Build a House</t>
   </si>
   <si>
-    <t>16 / 5 / 4 / 0</t>
-  </si>
-  <si>
     <t>4 Peasants on Food</t>
   </si>
   <si>
     <t>Build a Temple when you have 250 gold</t>
   </si>
   <si>
-    <t>18 / 5 / 5 / 0</t>
-  </si>
-  <si>
     <t>Advance (4.00)</t>
   </si>
   <si>
-    <t>11 / 9 / 5 / 0</t>
-  </si>
-  <si>
     <t>Move 4 Peasant from Food to Wood</t>
   </si>
   <si>
@@ -164,20 +124,771 @@
     <t>Classical (5.00)</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=FZsJv5VwQUI</t>
-  </si>
-  <si>
-    <t>1 Peasants on Food</t>
-  </si>
-  <si>
-    <t>Kuafu makes a Silo then goes on Wood</t>
+    <t>OUTDATED - Instant prosperous seeds - By Looki</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>1 Peasant makes a Silo then goes on Food
+1 Peasant makes a house then goes on Food
+Kuafu makes a Silo then goes on Gold</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/ 0 /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>8 Peasants on Food</t>
+  </si>
+  <si>
+    <t>Once you have 250 gold move Kuafu to Wood</t>
+  </si>
+  <si>
+    <t>Kuafu makes temple once you have 150 Wood</t>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/ 1 /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Advance (2.30)</t>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Move 3 Peasants from Food to Wood
+Move 1 Peasant from Food to Gold</t>
+  </si>
+  <si>
+    <t>Classical (3.30)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6 / 4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>1 Peasant makes a Silo then goes on Wood</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/ 1 /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Advance (2.45)</t>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Move 2 Peasants from Food to Wood
+Move 1 Peasant from Food to Gold</t>
+  </si>
+  <si>
+    <t>Classical (3.45)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7 / 4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>3:45 double Kuafu - Mirez</t>
+  </si>
+  <si>
+    <t>3:30 double Kuafu - Mirez</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>1 Peasants on Food
+1 Peasant Makes a Dock, a House, then goes on Wood
+Kuafu makes a Silo then goes on Wood</t>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 1 / 0 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 5 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 5 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 5 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 5 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 5 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/ 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Water Build - Mirez</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -185,16 +896,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -202,12 +958,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,352 +1384,545 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D12" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:D12 B1:D1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC92025-9DF7-4A88-9E45-9207AEBB02BB}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="215.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A10:D10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDBE338-FB6B-4F20-A812-EAFBAF400183}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="186.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A15:D15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4E1833-1FF0-4962-959E-A7822893A4C8}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="80.375" customWidth="1"/>
-    <col min="2" max="2" width="53.125" customWidth="1"/>
-    <col min="3" max="3" width="40.375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="1" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="215.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:D3 A5:D5 A4 C4:D4 A7:D18 B6:D6" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/public/assets/BOs/Shennong.xlsx
+++ b/public/assets/BOs/Shennong.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA447B30-9A17-44D9-BB28-18B4C5E64FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC532933-89BE-404B-82F0-B3863D9440DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="3" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="5" r:id="rId3"/>
-    <sheet name="Feuil2" sheetId="4" r:id="rId4"/>
+    <sheet name="Feuil1" sheetId="3" r:id="rId1"/>
+    <sheet name="Feuil3" sheetId="5" r:id="rId2"/>
+    <sheet name="Feuil2" sheetId="4" r:id="rId3"/>
+    <sheet name="Feuil4" sheetId="6" r:id="rId4"/>
+    <sheet name="Feuil5" sheetId="7" r:id="rId5"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="113">
   <si>
     <t>Archaic</t>
   </si>
@@ -882,13 +884,175 @@
   </si>
   <si>
     <t>Water Build - Mirez</t>
+  </si>
+  <si>
+    <t>2/1/0/0</t>
+  </si>
+  <si>
+    <t>All villagers to food</t>
+  </si>
+  <si>
+    <t>Initial 2 vills build Silo in middle of hunt clump and gather food. 
+Kuafu builds a house then a Silo between Gold and Wood and gathers Gold. 
+(If there are no trees next to Gold then just build a silo at Gold).</t>
+  </si>
+  <si>
+    <t>5/1/0/0</t>
+  </si>
+  <si>
+    <t>At 250 gold Kuafu switches and builds silo at wood (or just moves to; if silo was between both) and gathers wood.</t>
+  </si>
+  <si>
+    <t>9/1/0/0</t>
+  </si>
+  <si>
+    <t>At 15 favor a Kuafu will be built and rallied to gold.
+At 150 gold (or 250 if the Kuafu hasn't started yet) and 150 wood Kuafu builds a temple. Kuafu returns to wood.</t>
+  </si>
+  <si>
+    <t>9/1/1/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research or Pre-Queue "Divine Light" at the Temple as soon as it is built. </t>
+  </si>
+  <si>
+    <t>Advance - Chiyou (2.45)</t>
+  </si>
+  <si>
+    <t>3/4/4/0</t>
+  </si>
+  <si>
+    <t>3 villagers and 1 kuafu go wood
+3 villagers 1 kuafu go gold
+3 stay on food</t>
+  </si>
+  <si>
+    <t>I make sure Auto-build Kuafu is turned OFF and I set myTC villager rally to wood.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immediately send first Yazi to attack villagers and research "Son of Loong" from the temple.
+You will have a short amount of time (est around the 4.40 time mark) to do damage. 
+Try to get out of there just before the enemy reaches Classical age. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4/5/0 </t>
+  </si>
+  <si>
+    <t>Build a Military Camp and a Machine workshop (I use 2 food workers for this)</t>
+  </si>
+  <si>
+    <t>3/4/8/0</t>
+  </si>
+  <si>
+    <t>Start rallying new villagers to food</t>
+  </si>
+  <si>
+    <t>If you're facing cavalry the Military Camp builds Halbadiers and researches 'Master of Weaponry'.
+If you want an all-around unit that is decent vs both units and buildings then make Dao Swordsman.
+The Machine Workshop generally makes Fire Archers if you're facing infantry or if you want to destroy buildings.
+The temple keeps producing Yazi and researches 'Rage of Slaughter' if your Yazis survive.</t>
+  </si>
+  <si>
+    <t>When you have wood to spare, build two farms next to your gold supply and cast 'Prosperous Seeds'. The invisible farms will help protect your workers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Play aggressively and use 'Lightning Weapons' to gain an edge during the fights. </t>
+  </si>
+  <si>
+    <t>1 TC Aggression Build Order - By BqvH</t>
+  </si>
+  <si>
+    <t>Initial 2 villagers build farms and stay on farms
+Kuafu to wood</t>
+  </si>
+  <si>
+    <t>Cast 'Prosperous Seeds' GP on farms
+Kuafu builds silo and gathers wood</t>
+  </si>
+  <si>
+    <t>Next 4 villagers go to food</t>
+  </si>
+  <si>
+    <t>Villager builds silo at food
+Build a House with kuafu or villager</t>
+  </si>
+  <si>
+    <t>6/1/1/0</t>
+  </si>
+  <si>
+    <t>Kuafu switches from wood to gold
+Next 3 villagers go to wood</t>
+  </si>
+  <si>
+    <t>6/3/2/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next Villager go to gold 
+</t>
+  </si>
+  <si>
+    <t>Build a Temple
+Research 'Divine Light'</t>
+  </si>
+  <si>
+    <t>7/3/2/0</t>
+  </si>
+  <si>
+    <t>Next Villager go to food</t>
+  </si>
+  <si>
+    <t>Advance - Chiyou (3.00)</t>
+  </si>
+  <si>
+    <t>3/5/4/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 villagers and 1 kuafu go to wood
+3 villagers 1 kuafu go gold
+1 villager stays on hunt
+</t>
+  </si>
+  <si>
+    <t>Classical (4.00)</t>
+  </si>
+  <si>
+    <t>Next 4 villagers go to food
+Send Yazi to scout and harrass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4/4/5/0
+4/3/4/0
+</t>
+  </si>
+  <si>
+    <t>At 300 wood 300 gold, start sending 2 kuafus to 2nd TC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Rally 1st TC new villagers to gold
+Swap all your 4 current wood villagers to 2 food and 2 gold
+Rally 2nd TC new villagers to wood</t>
+  </si>
+  <si>
+    <t>After 2nd TC is built send the 2 Kuafu to Wood</t>
+  </si>
+  <si>
+    <t>2 TC Build Order - By BqvH</t>
+  </si>
+  <si>
+    <t>7/3/4/0
+9/2/7/0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -929,8 +1093,47 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -947,6 +1150,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1011,10 +1232,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1024,6 +1246,17 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1043,9 +1276,33 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{30C6EC55-FDC5-4217-AE20-0F755CC47AC6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1381,114 +1638,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="60" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A2:D12 B1:D1" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC92025-9DF7-4A88-9E45-9207AEBB02BB}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -1496,25 +1645,25 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1522,7 +1671,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="215.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="180.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
@@ -1532,7 +1681,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="70.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
@@ -1546,7 +1695,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
@@ -1556,15 +1705,15 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1572,7 +1721,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="111.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
@@ -1582,15 +1731,15 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1598,7 +1747,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -1619,7 +1768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDBE338-FB6B-4F20-A812-EAFBAF400183}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -1627,25 +1776,25 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1653,7 +1802,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="186.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="166.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>57</v>
       </c>
@@ -1663,7 +1812,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>59</v>
       </c>
@@ -1675,7 +1824,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
@@ -1685,7 +1834,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="70.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>61</v>
       </c>
@@ -1695,7 +1844,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>62</v>
       </c>
@@ -1705,7 +1854,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>63</v>
       </c>
@@ -1717,7 +1866,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="70.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>64</v>
       </c>
@@ -1729,7 +1878,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>65</v>
       </c>
@@ -1739,15 +1888,15 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1755,7 +1904,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="56.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>66</v>
       </c>
@@ -1767,13 +1916,13 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1786,33 +1935,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4E1833-1FF0-4962-959E-A7822893A4C8}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1820,7 +1969,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="215.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="180.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
@@ -1830,7 +1979,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="56.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -1840,7 +1989,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="70.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>48</v>
       </c>
@@ -1854,7 +2003,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -1864,15 +2013,15 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1880,7 +2029,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="111.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
@@ -1890,15 +2039,15 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1906,7 +2055,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -1925,4 +2074,431 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5BD5538-0D83-476C-B2CD-795D7011D4BF}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A9" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D6B550C-7CAA-42CD-BC35-688CECA2CDBD}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A1" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A9" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A11" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="60" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:D12 B1:D1" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/public/assets/BOs/Shennong.xlsx
+++ b/public/assets/BOs/Shennong.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC532933-89BE-404B-82F0-B3863D9440DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F196EDB-9EEA-4A49-B4E8-AA4540B396C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="3" r:id="rId1"/>
@@ -927,9 +927,6 @@
 3 stay on food</t>
   </si>
   <si>
-    <t>I make sure Auto-build Kuafu is turned OFF and I set myTC villager rally to wood.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Immediately send first Yazi to attack villagers and research "Son of Loong" from the temple.
 You will have a short amount of time (est around the 4.40 time mark) to do damage. 
 Try to get out of there just before the enemy reaches Classical age. 
@@ -1046,6 +1043,9 @@
   <si>
     <t>7/3/4/0
 9/2/7/0</t>
+  </si>
+  <si>
+    <t>I make sure Auto-build Kuafu is turned OFF and I put  myTC villager rally to wood.</t>
   </si>
 </sst>
 </file>
@@ -1258,6 +1258,9 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1295,9 +1298,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1645,25 +1645,25 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="3" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1671,7 +1671,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="180.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="215.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
@@ -1681,7 +1681,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="70.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
@@ -1705,15 +1705,15 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1721,7 +1721,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="111.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
@@ -1731,15 +1731,15 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1747,7 +1747,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -1776,25 +1776,25 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="3" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1802,7 +1802,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="166.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="186.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>57</v>
       </c>
@@ -1812,7 +1812,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>59</v>
       </c>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
@@ -1834,7 +1834,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="70.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>61</v>
       </c>
@@ -1844,7 +1844,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>62</v>
       </c>
@@ -1854,7 +1854,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>63</v>
       </c>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="70.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>64</v>
       </c>
@@ -1878,7 +1878,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>65</v>
       </c>
@@ -1888,15 +1888,15 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-    </row>
-    <row r="13" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1904,7 +1904,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="56.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>66</v>
       </c>
@@ -1916,13 +1916,13 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1943,25 +1943,25 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="3" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1969,7 +1969,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="180.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="215.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
@@ -1979,7 +1979,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="56.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -1989,7 +1989,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="70.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>48</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -2013,15 +2013,15 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2029,7 +2029,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="111.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
@@ -2039,15 +2039,15 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-    </row>
-    <row r="12" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -2055,7 +2055,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -2080,29 +2080,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5BD5538-0D83-476C-B2CD-795D7011D4BF}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="19" t="s">
+    <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-    </row>
-    <row r="3" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -2110,7 +2110,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>68</v>
       </c>
@@ -2122,7 +2122,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>71</v>
       </c>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>73</v>
       </c>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>75</v>
       </c>
@@ -2152,21 +2152,21 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>78</v>
       </c>
@@ -2174,61 +2174,61 @@
         <v>79</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="B14" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" s="4"/>
     </row>
@@ -2247,143 +2247,143 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D6B550C-7CAA-42CD-BC35-688CECA2CDBD}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.796875" customWidth="1"/>
+    <col min="1" max="1" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="23" t="s">
+    <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-    </row>
-    <row r="3" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="9"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>68</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>68</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="9" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="B7" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="9" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="B8" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>100</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A9" s="24" t="s">
+    <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="B10" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A11" s="24" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="B13" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="9" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2403,27 +2403,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2469,17 +2469,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
